--- a/RPGSkill/Tools/TableTools/Tables/Excel/Skill/Tab_BufferData.xlsx
+++ b/RPGSkill/Tools/TableTools/Tables/Excel/Skill/Tab_BufferData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑Id，对应到代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声音（可以有多个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与逻辑相关的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据子弹速度计算延时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,15 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,22 +455,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -436,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -445,10 +490,36 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RPGSkill/Tools/TableTools/Tables/Excel/Skill/Tab_BufferData.xlsx
+++ b/RPGSkill/Tools/TableTools/Tables/Excel/Skill/Tab_BufferData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据子弹速度计算延时</t>
+    <t>Delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是子弹，会根据距离缩放整个Buff的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延时生效ms（不影响特效动画声音等表现）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -442,12 +454,12 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="6" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,25 +467,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -481,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -493,13 +508,16 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -507,18 +525,21 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
